--- a/프로젝트 진행 내용/240904_요구사항정의서_v0.4.xlsx
+++ b/프로젝트 진행 내용/240904_요구사항정의서_v0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hsk\Semi\프로젝트 진행 내용\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6583FC-4118-4C0A-BC06-820096165731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E679FC14-CB74-463C-B2C0-00BAD8AD2153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32580" yWindow="2490" windowWidth="21600" windowHeight="11295" xr2:uid="{6D10B2F0-94FC-47D4-9AFB-FA703AE0FFC7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D10B2F0-94FC-47D4-9AFB-FA703AE0FFC7}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
@@ -1144,7 +1144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,6 +1220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,7 +1405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1592,6 +1598,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1640,29 +1649,8 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2074,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98C64C3-5D83-4B94-889E-BC52452FC40A}">
-  <dimension ref="C1:N97"/>
+  <dimension ref="C2:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2089,14 +2077,10 @@
     <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.125" customWidth="1"/>
-    <col min="9" max="10" width="27.625" customWidth="1"/>
-    <col min="11" max="11" width="27.625" style="81" customWidth="1"/>
+    <col min="9" max="11" width="27.625" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="K1"/>
-    </row>
     <row r="2" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C2" s="32" t="s">
         <v>0</v>
@@ -2130,7 +2114,7 @@
       </c>
     </row>
     <row r="3" spans="3:14" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="26" t="s">
@@ -2152,12 +2136,12 @@
       <c r="J3" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="82"/>
+      <c r="K3" s="64"/>
       <c r="M3" s="49"/>
       <c r="N3" s="49"/>
     </row>
     <row r="4" spans="3:14" ht="45" x14ac:dyDescent="0.3">
-      <c r="C4" s="67"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="28" t="s">
         <v>66</v>
       </c>
@@ -2175,12 +2159,12 @@
       <c r="J4" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="60"/>
       <c r="M4" s="49"/>
       <c r="N4" s="49"/>
     </row>
     <row r="5" spans="3:14" ht="45" x14ac:dyDescent="0.3">
-      <c r="C5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="29" t="s">
         <v>68</v>
       </c>
@@ -2198,12 +2182,12 @@
       <c r="J5" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="83"/>
+      <c r="K5" s="60"/>
       <c r="M5" s="49"/>
       <c r="N5" s="49"/>
     </row>
     <row r="6" spans="3:14" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="C6" s="67"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="28" t="s">
         <v>55</v>
       </c>
@@ -2221,10 +2205,10 @@
       <c r="J6" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="83"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="3:14" ht="45" x14ac:dyDescent="0.3">
-      <c r="C7" s="67"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="28" t="s">
         <v>56</v>
       </c>
@@ -2244,10 +2228,10 @@
       <c r="J7" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="86"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="3:14" ht="45" x14ac:dyDescent="0.3">
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="65" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="31" t="s">
@@ -2267,10 +2251,10 @@
       <c r="J8" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="83"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="3:14" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="C9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="29" t="s">
         <v>70</v>
       </c>
@@ -2288,10 +2272,10 @@
       <c r="J9" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="83"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="3:14" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="C10" s="65"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="28" t="s">
         <v>59</v>
       </c>
@@ -2309,10 +2293,10 @@
         <v>74</v>
       </c>
       <c r="J10" s="60"/>
-      <c r="K10" s="83"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="3:14" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C11" s="65"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="28" t="s">
         <v>60</v>
       </c>
@@ -2330,10 +2314,10 @@
       <c r="J11" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="83"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="3:14" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="65"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="27" t="s">
         <v>61</v>
       </c>
@@ -2353,10 +2337,10 @@
       <c r="J12" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="83"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="3:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="65"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="28" t="s">
         <v>81</v>
       </c>
@@ -2376,10 +2360,10 @@
       <c r="J13" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="83"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" spans="3:14" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="65"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="30" t="s">
         <v>62</v>
       </c>
@@ -2393,10 +2377,10 @@
         <v>51</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="87"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="3:14" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="69" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -2410,10 +2394,10 @@
       <c r="H15" s="36"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="84"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="3:14" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C16" s="69"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2429,10 +2413,10 @@
       <c r="J16" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="83"/>
-    </row>
-    <row r="17" spans="3:11" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C17" s="69"/>
+      <c r="K16" s="60"/>
+    </row>
+    <row r="17" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C17" s="70"/>
       <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
@@ -2448,10 +2432,10 @@
       <c r="J17" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="83"/>
-    </row>
-    <row r="18" spans="3:11" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C18" s="69"/>
+      <c r="K17" s="60"/>
+    </row>
+    <row r="18" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C18" s="70"/>
       <c r="D18" s="9" t="s">
         <v>22</v>
       </c>
@@ -2467,10 +2451,10 @@
       <c r="J18" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="83"/>
-    </row>
-    <row r="19" spans="3:11" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="C19" s="69"/>
+      <c r="K18" s="60"/>
+    </row>
+    <row r="19" spans="3:12" ht="101.25" x14ac:dyDescent="0.3">
+      <c r="C19" s="70"/>
       <c r="D19" s="9" t="s">
         <v>19</v>
       </c>
@@ -2486,10 +2470,11 @@
       <c r="J19" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="83"/>
-    </row>
-    <row r="20" spans="3:11" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C20" s="69"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="81"/>
+    </row>
+    <row r="20" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C20" s="70"/>
       <c r="D20" s="9" t="s">
         <v>48</v>
       </c>
@@ -2507,10 +2492,10 @@
       <c r="J20" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="83"/>
-    </row>
-    <row r="21" spans="3:11" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="69"/>
+      <c r="K20" s="60"/>
+    </row>
+    <row r="21" spans="3:12" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="70"/>
       <c r="D21" s="9" t="s">
         <v>20</v>
       </c>
@@ -2524,10 +2509,10 @@
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="84"/>
-    </row>
-    <row r="22" spans="3:11" ht="45" x14ac:dyDescent="0.3">
-      <c r="C22" s="70"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="3:12" ht="45" x14ac:dyDescent="0.3">
+      <c r="C22" s="71"/>
       <c r="D22" s="15" t="s">
         <v>18</v>
       </c>
@@ -2539,10 +2524,10 @@
       <c r="H22" s="38"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="87"/>
-    </row>
-    <row r="23" spans="3:11" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="C23" s="77" t="s">
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="3:12" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="C23" s="78" t="s">
         <v>83</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -2562,10 +2547,10 @@
       <c r="J23" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="83"/>
-    </row>
-    <row r="24" spans="3:11" ht="90" x14ac:dyDescent="0.3">
-      <c r="C24" s="78"/>
+      <c r="K23" s="60"/>
+    </row>
+    <row r="24" spans="3:12" ht="90" x14ac:dyDescent="0.3">
+      <c r="C24" s="79"/>
       <c r="D24" s="9" t="s">
         <v>114</v>
       </c>
@@ -2583,10 +2568,10 @@
       <c r="J24" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="83"/>
-    </row>
-    <row r="25" spans="3:11" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="C25" s="78"/>
+      <c r="K24" s="60"/>
+    </row>
+    <row r="25" spans="3:12" ht="78.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="79"/>
       <c r="D25" s="9" t="s">
         <v>85</v>
       </c>
@@ -2602,10 +2587,10 @@
       <c r="J25" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="K25" s="83"/>
-    </row>
-    <row r="26" spans="3:11" ht="45" x14ac:dyDescent="0.3">
-      <c r="C26" s="79"/>
+      <c r="K25" s="60"/>
+    </row>
+    <row r="26" spans="3:12" ht="45" x14ac:dyDescent="0.3">
+      <c r="C26" s="80"/>
       <c r="D26" s="10" t="s">
         <v>86</v>
       </c>
@@ -2625,10 +2610,10 @@
       <c r="J26" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="K26" s="86"/>
-    </row>
-    <row r="27" spans="3:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="C27" s="73" t="s">
+      <c r="K26" s="63"/>
+    </row>
+    <row r="27" spans="3:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="C27" s="74" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -2642,10 +2627,10 @@
         <v>46</v>
       </c>
       <c r="J27" s="44"/>
-      <c r="K27" s="83"/>
-    </row>
-    <row r="28" spans="3:11" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="C28" s="73"/>
+      <c r="K27" s="60"/>
+    </row>
+    <row r="28" spans="3:12" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="C28" s="74"/>
       <c r="D28" s="9" t="s">
         <v>30</v>
       </c>
@@ -2663,10 +2648,10 @@
       <c r="J28" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="83"/>
-    </row>
-    <row r="29" spans="3:11" ht="90" x14ac:dyDescent="0.3">
-      <c r="C29" s="73"/>
+      <c r="K28" s="60"/>
+    </row>
+    <row r="29" spans="3:12" ht="90" x14ac:dyDescent="0.3">
+      <c r="C29" s="74"/>
       <c r="D29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2684,10 +2669,10 @@
       <c r="J29" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="83"/>
-    </row>
-    <row r="30" spans="3:11" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C30" s="73"/>
+      <c r="K29" s="60"/>
+    </row>
+    <row r="30" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C30" s="74"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
@@ -2705,10 +2690,10 @@
       <c r="J30" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="83"/>
-    </row>
-    <row r="31" spans="3:11" ht="45" x14ac:dyDescent="0.3">
-      <c r="C31" s="73"/>
+      <c r="K30" s="60"/>
+    </row>
+    <row r="31" spans="3:12" ht="45" x14ac:dyDescent="0.3">
+      <c r="C31" s="74"/>
       <c r="D31" s="9" t="s">
         <v>32</v>
       </c>
@@ -2722,10 +2707,10 @@
         <v>51</v>
       </c>
       <c r="J31" s="60"/>
-      <c r="K31" s="83"/>
-    </row>
-    <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.3">
-      <c r="C32" s="73"/>
+      <c r="K31" s="60"/>
+    </row>
+    <row r="32" spans="3:12" ht="45" x14ac:dyDescent="0.3">
+      <c r="C32" s="74"/>
       <c r="D32" s="9" t="s">
         <v>33</v>
       </c>
@@ -2741,10 +2726,10 @@
         <v>51</v>
       </c>
       <c r="J32" s="60"/>
-      <c r="K32" s="83"/>
-    </row>
-    <row r="33" spans="3:11" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="C33" s="73"/>
+      <c r="K32" s="60"/>
+    </row>
+    <row r="33" spans="3:12" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="74"/>
       <c r="D33" s="9" t="s">
         <v>35</v>
       </c>
@@ -2760,10 +2745,10 @@
         <v>51</v>
       </c>
       <c r="J33" s="60"/>
-      <c r="K33" s="83"/>
-    </row>
-    <row r="34" spans="3:11" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="C34" s="73"/>
+      <c r="K33" s="60"/>
+    </row>
+    <row r="34" spans="3:12" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="74"/>
       <c r="D34" s="9" t="s">
         <v>20</v>
       </c>
@@ -2783,10 +2768,10 @@
         <v>51</v>
       </c>
       <c r="J34" s="60"/>
-      <c r="K34" s="83"/>
-    </row>
-    <row r="35" spans="3:11" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="C35" s="74"/>
+      <c r="K34" s="60"/>
+    </row>
+    <row r="35" spans="3:12" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="75"/>
       <c r="D35" s="15" t="s">
         <v>40</v>
       </c>
@@ -2802,10 +2787,10 @@
         <v>51</v>
       </c>
       <c r="J35" s="63"/>
-      <c r="K35" s="86"/>
-    </row>
-    <row r="36" spans="3:11" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="C36" s="75" t="s">
+      <c r="K35" s="63"/>
+    </row>
+    <row r="36" spans="3:12" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="C36" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -2825,10 +2810,10 @@
       <c r="J36" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K36" s="83"/>
-    </row>
-    <row r="37" spans="3:11" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C37" s="75"/>
+      <c r="K36" s="60"/>
+    </row>
+    <row r="37" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C37" s="76"/>
       <c r="D37" s="16" t="s">
         <v>42</v>
       </c>
@@ -2846,10 +2831,10 @@
       <c r="J37" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K37" s="83"/>
-    </row>
-    <row r="38" spans="3:11" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C38" s="75"/>
+      <c r="K37" s="60"/>
+    </row>
+    <row r="38" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C38" s="76"/>
       <c r="D38" s="9" t="s">
         <v>49</v>
       </c>
@@ -2871,10 +2856,10 @@
       <c r="J38" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K38" s="83"/>
-    </row>
-    <row r="39" spans="3:11" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C39" s="76"/>
+      <c r="K38" s="60"/>
+    </row>
+    <row r="39" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C39" s="77"/>
       <c r="D39" s="10" t="s">
         <v>50</v>
       </c>
@@ -2892,10 +2877,10 @@
       <c r="J39" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="86"/>
-    </row>
-    <row r="40" spans="3:11" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="C40" s="71" t="s">
+      <c r="K39" s="63"/>
+    </row>
+    <row r="40" spans="3:12" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="C40" s="72" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="17" t="s">
@@ -2909,10 +2894,11 @@
       <c r="H40" s="36"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="84"/>
-    </row>
-    <row r="41" spans="3:11" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="C41" s="71"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="81"/>
+    </row>
+    <row r="41" spans="3:12" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="C41" s="72"/>
       <c r="D41" s="16" t="s">
         <v>7</v>
       </c>
@@ -2930,10 +2916,11 @@
       <c r="J41" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K41" s="83"/>
-    </row>
-    <row r="42" spans="3:11" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C42" s="71"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="81"/>
+    </row>
+    <row r="42" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C42" s="72"/>
       <c r="D42" s="9" t="s">
         <v>8</v>
       </c>
@@ -2951,10 +2938,11 @@
       <c r="J42" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="83"/>
-    </row>
-    <row r="43" spans="3:11" ht="45" x14ac:dyDescent="0.3">
-      <c r="C43" s="72"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="81"/>
+    </row>
+    <row r="43" spans="3:12" ht="45" x14ac:dyDescent="0.3">
+      <c r="C43" s="73"/>
       <c r="D43" s="10" t="s">
         <v>9</v>
       </c>
@@ -2970,10 +2958,11 @@
       <c r="J43" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K43" s="86"/>
-    </row>
-    <row r="44" spans="3:11" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="C44" s="68" t="s">
+      <c r="K43" s="63"/>
+      <c r="L43" s="81"/>
+    </row>
+    <row r="44" spans="3:12" ht="78.75" x14ac:dyDescent="0.3">
+      <c r="C44" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -2991,14 +2980,14 @@
       <c r="J44" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K44" s="83"/>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C45" s="69"/>
+      <c r="K44" s="60"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C45" s="70"/>
       <c r="D45" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E45" s="80" t="s">
+      <c r="E45" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F45" s="29"/>
@@ -3010,8 +2999,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="3:11" ht="45" x14ac:dyDescent="0.3">
-      <c r="C46" s="69"/>
+    <row r="46" spans="3:12" ht="45" x14ac:dyDescent="0.3">
+      <c r="C46" s="70"/>
       <c r="D46" s="9" t="s">
         <v>16</v>
       </c>
@@ -3027,10 +3016,10 @@
       <c r="J46" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K46" s="83"/>
-    </row>
-    <row r="47" spans="3:11" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="C47" s="69"/>
+      <c r="K46" s="60"/>
+    </row>
+    <row r="47" spans="3:12" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="C47" s="70"/>
       <c r="D47" s="9" t="s">
         <v>17</v>
       </c>
@@ -3048,10 +3037,10 @@
       <c r="J47" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K47" s="83"/>
-    </row>
-    <row r="48" spans="3:11" ht="45" x14ac:dyDescent="0.3">
-      <c r="C48" s="70"/>
+      <c r="K47" s="60"/>
+    </row>
+    <row r="48" spans="3:12" ht="45" x14ac:dyDescent="0.3">
+      <c r="C48" s="71"/>
       <c r="D48" s="10" t="s">
         <v>11</v>
       </c>
@@ -3063,7 +3052,7 @@
       <c r="H48" s="39"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
-      <c r="K48" s="85"/>
+      <c r="K48" s="14"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D49" s="3"/>

--- a/프로젝트 진행 내용/240904_요구사항정의서_v0.4.xlsx
+++ b/프로젝트 진행 내용/240904_요구사항정의서_v0.4.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hsk\Semi\프로젝트 진행 내용\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\khb\Semi\프로젝트 진행 내용\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E679FC14-CB74-463C-B2C0-00BAD8AD2153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D10B2F0-94FC-47D4-9AFB-FA703AE0FFC7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
     <sheet name="출처" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'요구사항 정의서'!$C$2:$K$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1043,7 +1045,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1144,7 +1146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,6 +1228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,7 +1413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1565,9 +1573,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1601,6 +1606,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1649,7 +1657,49 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2061,11 +2111,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98C64C3-5D83-4B94-889E-BC52452FC40A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2136,7 +2186,7 @@
       <c r="J3" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="63"/>
       <c r="M3" s="49"/>
       <c r="N3" s="49"/>
     </row>
@@ -2159,7 +2209,7 @@
       <c r="J4" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="60"/>
+      <c r="K4" s="59"/>
       <c r="M4" s="49"/>
       <c r="N4" s="49"/>
     </row>
@@ -2171,7 +2221,7 @@
       <c r="E5" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>92</v>
       </c>
       <c r="G5" s="27"/>
@@ -2182,7 +2232,7 @@
       <c r="J5" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="59"/>
       <c r="M5" s="49"/>
       <c r="N5" s="49"/>
     </row>
@@ -2205,7 +2255,7 @@
       <c r="J6" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="3:14" ht="45" x14ac:dyDescent="0.3">
       <c r="C7" s="68"/>
@@ -2215,7 +2265,7 @@
       <c r="E7" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="55" t="s">
         <v>94</v>
       </c>
       <c r="G7" s="23"/>
@@ -2225,10 +2275,10 @@
       <c r="I7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="63"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="3:14" ht="45" x14ac:dyDescent="0.3">
       <c r="C8" s="65" t="s">
@@ -2237,10 +2287,10 @@
       <c r="D8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="56" t="s">
         <v>95</v>
       </c>
       <c r="G8" s="24"/>
@@ -2251,17 +2301,17 @@
       <c r="J8" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="59"/>
     </row>
     <row r="9" spans="3:14" ht="78.75" x14ac:dyDescent="0.3">
       <c r="C9" s="66"/>
       <c r="D9" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="55" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="27"/>
@@ -2272,14 +2322,14 @@
       <c r="J9" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="60"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="3:14" ht="33.75" x14ac:dyDescent="0.3">
       <c r="C10" s="66"/>
       <c r="D10" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="55" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="28" t="s">
@@ -2292,8 +2342,8 @@
       <c r="I10" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="3:14" ht="56.25" x14ac:dyDescent="0.3">
       <c r="C11" s="66"/>
@@ -2303,7 +2353,7 @@
       <c r="E11" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>101</v>
       </c>
       <c r="G11" s="28"/>
@@ -2314,7 +2364,7 @@
       <c r="J11" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="60"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="3:14" ht="78.75" x14ac:dyDescent="0.3">
       <c r="C12" s="66"/>
@@ -2337,7 +2387,7 @@
       <c r="J12" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="3:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="66"/>
@@ -2347,7 +2397,7 @@
       <c r="E13" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="55" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="28"/>
@@ -2360,14 +2410,14 @@
       <c r="J13" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="60"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="3:14" ht="33.75" x14ac:dyDescent="0.3">
       <c r="C14" s="66"/>
       <c r="D14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="58" t="s">
         <v>104</v>
       </c>
       <c r="F14" s="30"/>
@@ -2413,7 +2463,7 @@
       <c r="J16" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="60"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
       <c r="C17" s="70"/>
@@ -2432,7 +2482,7 @@
       <c r="J17" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="60"/>
+      <c r="K17" s="59"/>
     </row>
     <row r="18" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
       <c r="C18" s="70"/>
@@ -2451,7 +2501,7 @@
       <c r="J18" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="60"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="3:12" ht="101.25" x14ac:dyDescent="0.3">
       <c r="C19" s="70"/>
@@ -2470,8 +2520,8 @@
       <c r="J19" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="81"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
       <c r="C20" s="70"/>
@@ -2492,23 +2542,23 @@
       <c r="J20" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="60"/>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" spans="3:12" ht="33.75" x14ac:dyDescent="0.3">
       <c r="C21" s="70"/>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37" t="s">
+      <c r="F21" s="84"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="3:12" ht="45" x14ac:dyDescent="0.3">
@@ -2547,7 +2597,7 @@
       <c r="J23" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="60"/>
+      <c r="K23" s="59"/>
     </row>
     <row r="24" spans="3:12" ht="90" x14ac:dyDescent="0.3">
       <c r="C24" s="79"/>
@@ -2568,7 +2618,7 @@
       <c r="J24" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="60"/>
+      <c r="K24" s="59"/>
     </row>
     <row r="25" spans="3:12" ht="78.75" x14ac:dyDescent="0.3">
       <c r="C25" s="79"/>
@@ -2583,40 +2633,40 @@
         <v>116</v>
       </c>
       <c r="H25" s="37"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="59"/>
       <c r="J25" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="K25" s="60"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="3:12" ht="45" x14ac:dyDescent="0.3">
       <c r="C26" s="80"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="54" t="s">
+      <c r="H26" s="89"/>
+      <c r="I26" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="K26" s="63"/>
+      <c r="K26" s="62"/>
     </row>
     <row r="27" spans="3:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="C27" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="19"/>
@@ -2627,11 +2677,11 @@
         <v>46</v>
       </c>
       <c r="J27" s="44"/>
-      <c r="K27" s="60"/>
+      <c r="K27" s="59"/>
     </row>
     <row r="28" spans="3:12" ht="112.5" x14ac:dyDescent="0.3">
       <c r="C28" s="74"/>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2648,7 +2698,7 @@
       <c r="J28" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="60"/>
+      <c r="K28" s="59"/>
     </row>
     <row r="29" spans="3:12" ht="90" x14ac:dyDescent="0.3">
       <c r="C29" s="74"/>
@@ -2669,11 +2719,11 @@
       <c r="J29" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="60"/>
+      <c r="K29" s="59"/>
     </row>
     <row r="30" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
       <c r="C30" s="74"/>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2690,11 +2740,11 @@
       <c r="J30" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="60"/>
+      <c r="K30" s="59"/>
     </row>
     <row r="31" spans="3:12" ht="45" x14ac:dyDescent="0.3">
       <c r="C31" s="74"/>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="82" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -2706,8 +2756,8 @@
       <c r="I31" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
     </row>
     <row r="32" spans="3:12" ht="45" x14ac:dyDescent="0.3">
       <c r="C32" s="74"/>
@@ -2717,7 +2767,7 @@
       <c r="E32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="60" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="37"/>
@@ -2725,18 +2775,18 @@
       <c r="I32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="3:12" ht="33.75" x14ac:dyDescent="0.3">
       <c r="C33" s="74"/>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="82" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="60" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="37"/>
@@ -2744,31 +2794,31 @@
       <c r="I33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" spans="3:12" ht="33.75" x14ac:dyDescent="0.3">
       <c r="C34" s="74"/>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="85" t="s">
         <v>39</v>
       </c>
       <c r="I34" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="3:12" ht="33.75" x14ac:dyDescent="0.3">
       <c r="C35" s="75"/>
@@ -2778,7 +2828,7 @@
       <c r="E35" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="61" t="s">
         <v>41</v>
       </c>
       <c r="G35" s="38"/>
@@ -2786,8 +2836,8 @@
       <c r="I35" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
     </row>
     <row r="36" spans="3:12" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C36" s="76" t="s">
@@ -2810,7 +2860,7 @@
       <c r="J36" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K36" s="60"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
       <c r="C37" s="76"/>
@@ -2831,7 +2881,7 @@
       <c r="J37" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K37" s="60"/>
+      <c r="K37" s="59"/>
     </row>
     <row r="38" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
       <c r="C38" s="76"/>
@@ -2856,7 +2906,7 @@
       <c r="J38" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K38" s="60"/>
+      <c r="K38" s="59"/>
     </row>
     <row r="39" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
       <c r="C39" s="77"/>
@@ -2877,13 +2927,13 @@
       <c r="J39" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="63"/>
+      <c r="K39" s="62"/>
     </row>
     <row r="40" spans="3:12" ht="33.75" x14ac:dyDescent="0.3">
       <c r="C40" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="92" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="18" t="s">
@@ -2895,11 +2945,11 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="81"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="3:12" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C41" s="72"/>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="93" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -2916,12 +2966,12 @@
       <c r="J41" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K41" s="60"/>
-      <c r="L41" s="81"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="3:12" ht="56.25" x14ac:dyDescent="0.3">
       <c r="C42" s="72"/>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="94" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -2938,12 +2988,12 @@
       <c r="J42" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="60"/>
-      <c r="L42" s="81"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="3:12" ht="45" x14ac:dyDescent="0.3">
       <c r="C43" s="73"/>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="95" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -2958,8 +3008,8 @@
       <c r="J43" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K43" s="63"/>
-      <c r="L43" s="81"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="3:12" ht="78.75" x14ac:dyDescent="0.3">
       <c r="C44" s="69" t="s">
@@ -2980,7 +3030,7 @@
       <c r="J44" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K44" s="60"/>
+      <c r="K44" s="59"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C45" s="70"/>
@@ -3016,7 +3066,7 @@
       <c r="J46" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K46" s="60"/>
+      <c r="K46" s="59"/>
     </row>
     <row r="47" spans="3:12" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C47" s="70"/>
@@ -3037,7 +3087,7 @@
       <c r="J47" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K47" s="60"/>
+      <c r="K47" s="59"/>
     </row>
     <row r="48" spans="3:12" ht="45" x14ac:dyDescent="0.3">
       <c r="C48" s="71"/>
@@ -3242,6 +3292,7 @@
       <c r="G97" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="C2:K48"/>
   <mergeCells count="8">
     <mergeCell ref="C8:C14"/>
     <mergeCell ref="C3:C7"/>
@@ -3260,7 +3311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C37605A-70EF-4138-84FF-1FE4DF3CDA7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3325,7 +3376,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D11" s="49"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="46" t="s">
         <v>88</v>
       </c>
